--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pf4</t>
   </si>
   <si>
     <t>Sdc2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H2">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I2">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J2">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.543673551326876</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N2">
-        <v>0.543673551326876</v>
+        <v>2.030039</v>
       </c>
       <c r="O2">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P2">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q2">
-        <v>0.9245258282290311</v>
+        <v>0.1900707470908889</v>
       </c>
       <c r="R2">
-        <v>0.9245258282290311</v>
+        <v>1.710636723818</v>
       </c>
       <c r="S2">
-        <v>6.229651471083891E-05</v>
+        <v>1.089033126490984E-05</v>
       </c>
       <c r="T2">
-        <v>6.229651471083891E-05</v>
+        <v>1.089033126490984E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H3">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I3">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J3">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.5263539907513</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N3">
-        <v>45.5263539907513</v>
+        <v>137.100929</v>
       </c>
       <c r="O3">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="P3">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="Q3">
-        <v>77.41831477147068</v>
+        <v>12.83663811477756</v>
       </c>
       <c r="R3">
-        <v>77.41831477147068</v>
+        <v>115.529743032998</v>
       </c>
       <c r="S3">
-        <v>0.005216610545416275</v>
+        <v>0.0007354905662092622</v>
       </c>
       <c r="T3">
-        <v>0.005216610545416275</v>
+        <v>0.0007354905662092622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.70051646980556</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H4">
-        <v>1.70051646980556</v>
+        <v>0.842662</v>
       </c>
       <c r="I4">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J4">
-        <v>0.007807354544489954</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>22.0662428636297</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N4">
-        <v>22.0662428636297</v>
+        <v>0.439328</v>
       </c>
       <c r="O4">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="P4">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="Q4">
-        <v>37.52400941633171</v>
+        <v>0.04113389012622222</v>
       </c>
       <c r="R4">
-        <v>37.52400941633171</v>
+        <v>0.370205011136</v>
       </c>
       <c r="S4">
-        <v>0.002528447484362841</v>
+        <v>2.356815536031727E-06</v>
       </c>
       <c r="T4">
-        <v>0.002528447484362841</v>
+        <v>2.356815536031727E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>90.7294238303969</v>
+        <v>0.2808873333333333</v>
       </c>
       <c r="H5">
-        <v>90.7294238303969</v>
+        <v>0.842662</v>
       </c>
       <c r="I5">
-        <v>0.4165539070269629</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="J5">
-        <v>0.4165539070269629</v>
+        <v>0.001177722312619665</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.543673551326876</v>
+        <v>26.65531</v>
       </c>
       <c r="N5">
-        <v>0.543673551326876</v>
+        <v>79.96593</v>
       </c>
       <c r="O5">
-        <v>0.007979209136186176</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="P5">
-        <v>0.007979209136186176</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="Q5">
-        <v>49.32718806371317</v>
+        <v>7.487138945073333</v>
       </c>
       <c r="R5">
-        <v>49.32718806371317</v>
+        <v>67.38425050566001</v>
       </c>
       <c r="S5">
-        <v>0.003323770740663589</v>
+        <v>0.0004289845996094616</v>
       </c>
       <c r="T5">
-        <v>0.003323770740663589</v>
+        <v>0.0004289845996094616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H6">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I6">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J6">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.5263539907513</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N6">
-        <v>45.5263539907513</v>
+        <v>2.030039</v>
       </c>
       <c r="O6">
-        <v>0.6681662163143214</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P6">
-        <v>0.6681662163143214</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q6">
-        <v>4130.579866679556</v>
+        <v>1.273864133892778</v>
       </c>
       <c r="R6">
-        <v>4130.579866679556</v>
+        <v>11.464777205035</v>
       </c>
       <c r="S6">
-        <v>0.2783272479491534</v>
+        <v>7.298757234823755E-05</v>
       </c>
       <c r="T6">
-        <v>0.2783272479491534</v>
+        <v>7.298757234823755E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>90.7294238303969</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H7">
-        <v>90.7294238303969</v>
+        <v>5.647565</v>
       </c>
       <c r="I7">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J7">
-        <v>0.4165539070269629</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.0662428636297</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N7">
-        <v>22.0662428636297</v>
+        <v>137.100929</v>
       </c>
       <c r="O7">
-        <v>0.3238545745494925</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="P7">
-        <v>0.3238545745494925</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="Q7">
-        <v>2002.05750111873</v>
+        <v>86.03182312087611</v>
       </c>
       <c r="R7">
-        <v>2002.05750111873</v>
+        <v>774.2864080878851</v>
       </c>
       <c r="S7">
-        <v>0.1349028883371459</v>
+        <v>0.00492929641962449</v>
       </c>
       <c r="T7">
-        <v>0.1349028883371459</v>
+        <v>0.00492929641962449</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>59.0872186318405</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H8">
-        <v>59.0872186318405</v>
+        <v>5.647565</v>
       </c>
       <c r="I8">
-        <v>0.2712792690324952</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J8">
-        <v>0.2712792690324952</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.543673551326876</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N8">
-        <v>0.543673551326876</v>
+        <v>0.439328</v>
       </c>
       <c r="O8">
-        <v>0.007979209136186176</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="P8">
-        <v>0.007979209136186176</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="Q8">
-        <v>32.12415799160028</v>
+        <v>0.2756814929244444</v>
       </c>
       <c r="R8">
-        <v>32.12415799160028</v>
+        <v>2.48113343632</v>
       </c>
       <c r="S8">
-        <v>0.002164594021921993</v>
+        <v>1.57955015566728E-05</v>
       </c>
       <c r="T8">
-        <v>0.002164594021921993</v>
+        <v>1.57955015566728E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>59.0872186318405</v>
+        <v>1.882521666666667</v>
       </c>
       <c r="H9">
-        <v>59.0872186318405</v>
+        <v>5.647565</v>
       </c>
       <c r="I9">
-        <v>0.2712792690324952</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="J9">
-        <v>0.2712792690324952</v>
+        <v>0.007893156820255192</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.5263539907513</v>
+        <v>26.65531</v>
       </c>
       <c r="N9">
-        <v>45.5263539907513</v>
+        <v>79.96593</v>
       </c>
       <c r="O9">
-        <v>0.6681662163143214</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="P9">
-        <v>0.6681662163143214</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="Q9">
-        <v>2690.025631762087</v>
+        <v>50.17919860671667</v>
       </c>
       <c r="R9">
-        <v>2690.025631762087</v>
+        <v>451.61278746045</v>
       </c>
       <c r="S9">
-        <v>0.1812596427539571</v>
+        <v>0.002875077326725792</v>
       </c>
       <c r="T9">
-        <v>0.1812596427539571</v>
+        <v>0.002875077326725792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,247 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.0872186318405</v>
+        <v>103.833693</v>
       </c>
       <c r="H10">
-        <v>59.0872186318405</v>
+        <v>311.501079</v>
       </c>
       <c r="I10">
-        <v>0.2712792690324952</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J10">
-        <v>0.2712792690324952</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.0662428636297</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N10">
-        <v>22.0662428636297</v>
+        <v>2.030039</v>
       </c>
       <c r="O10">
-        <v>0.3238545745494925</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P10">
-        <v>0.3238545745494925</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q10">
-        <v>1303.832916466578</v>
+        <v>70.262148768009</v>
       </c>
       <c r="R10">
-        <v>1303.832916466578</v>
+        <v>632.3593389120809</v>
       </c>
       <c r="S10">
-        <v>0.08785503225661603</v>
+        <v>0.004025754026747201</v>
       </c>
       <c r="T10">
-        <v>0.08785503225661603</v>
+        <v>0.004025754026747202</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>66.2924025673385</v>
+        <v>103.833693</v>
       </c>
       <c r="H11">
-        <v>66.2924025673385</v>
+        <v>311.501079</v>
       </c>
       <c r="I11">
-        <v>0.304359469396052</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J11">
-        <v>0.304359469396052</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.543673551326876</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N11">
-        <v>0.543673551326876</v>
+        <v>137.100929</v>
       </c>
       <c r="O11">
-        <v>0.007979209136186176</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="P11">
-        <v>0.007979209136186176</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="Q11">
-        <v>36.04142592977583</v>
+        <v>4745.231923933599</v>
       </c>
       <c r="R11">
-        <v>36.04142592977583</v>
+        <v>42707.08731540239</v>
       </c>
       <c r="S11">
-        <v>0.002428547858889755</v>
+        <v>0.271883750505548</v>
       </c>
       <c r="T11">
-        <v>0.002428547858889755</v>
+        <v>0.271883750505548</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>66.2924025673385</v>
+        <v>103.833693</v>
       </c>
       <c r="H12">
-        <v>66.2924025673385</v>
+        <v>311.501079</v>
       </c>
       <c r="I12">
-        <v>0.304359469396052</v>
+        <v>0.435360525505364</v>
       </c>
       <c r="J12">
-        <v>0.304359469396052</v>
+        <v>0.4353605255053641</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>45.5263539907513</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N12">
-        <v>45.5263539907513</v>
+        <v>0.439328</v>
       </c>
       <c r="O12">
-        <v>0.6681662163143214</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="P12">
-        <v>0.6681662163143214</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="Q12">
-        <v>3018.051386178043</v>
+        <v>15.205682892768</v>
       </c>
       <c r="R12">
-        <v>3018.051386178043</v>
+        <v>136.851146034912</v>
       </c>
       <c r="S12">
-        <v>0.2033627150657946</v>
+        <v>0.0008712278261958487</v>
       </c>
       <c r="T12">
-        <v>0.2033627150657946</v>
+        <v>0.0008712278261958488</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>103.833693</v>
+      </c>
+      <c r="H13">
+        <v>311.501079</v>
+      </c>
+      <c r="I13">
+        <v>0.435360525505364</v>
+      </c>
+      <c r="J13">
+        <v>0.4353605255053641</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>26.65531</v>
+      </c>
+      <c r="N13">
+        <v>79.96593</v>
+      </c>
+      <c r="O13">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="P13">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="Q13">
+        <v>2767.71927535983</v>
+      </c>
+      <c r="R13">
+        <v>24909.47347823847</v>
+      </c>
+      <c r="S13">
+        <v>0.158579793146873</v>
+      </c>
+      <c r="T13">
+        <v>0.158579793146873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>63.709236</v>
+      </c>
+      <c r="H14">
+        <v>191.127708</v>
+      </c>
+      <c r="I14">
+        <v>0.267124144996993</v>
+      </c>
+      <c r="J14">
+        <v>0.2671241449969931</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6766796666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.030039</v>
+      </c>
+      <c r="O14">
+        <v>0.009246943144590633</v>
+      </c>
+      <c r="P14">
+        <v>0.009246943144590633</v>
+      </c>
+      <c r="Q14">
+        <v>43.110744580068</v>
+      </c>
+      <c r="R14">
+        <v>387.996701220612</v>
+      </c>
+      <c r="S14">
+        <v>0.002470081781334579</v>
+      </c>
+      <c r="T14">
+        <v>0.002470081781334579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>63.709236</v>
+      </c>
+      <c r="H15">
+        <v>191.127708</v>
+      </c>
+      <c r="I15">
+        <v>0.267124144996993</v>
+      </c>
+      <c r="J15">
+        <v>0.2671241449969931</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N15">
+        <v>137.100929</v>
+      </c>
+      <c r="O15">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="P15">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="Q15">
+        <v>2911.531813826748</v>
+      </c>
+      <c r="R15">
+        <v>26203.78632444073</v>
+      </c>
+      <c r="S15">
+        <v>0.1668197049056425</v>
+      </c>
+      <c r="T15">
+        <v>0.1668197049056425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>63.709236</v>
+      </c>
+      <c r="H16">
+        <v>191.127708</v>
+      </c>
+      <c r="I16">
+        <v>0.267124144996993</v>
+      </c>
+      <c r="J16">
+        <v>0.2671241449969931</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1464426666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.439328</v>
+      </c>
+      <c r="O16">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="P16">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="Q16">
+        <v>9.329750411136001</v>
+      </c>
+      <c r="R16">
+        <v>83.96775370022401</v>
+      </c>
+      <c r="S16">
+        <v>0.0005345592320296101</v>
+      </c>
+      <c r="T16">
+        <v>0.0005345592320296102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>63.709236</v>
+      </c>
+      <c r="H17">
+        <v>191.127708</v>
+      </c>
+      <c r="I17">
+        <v>0.267124144996993</v>
+      </c>
+      <c r="J17">
+        <v>0.2671241449969931</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>26.65531</v>
+      </c>
+      <c r="N17">
+        <v>79.96593</v>
+      </c>
+      <c r="O17">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="P17">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="Q17">
+        <v>1698.18943544316</v>
+      </c>
+      <c r="R17">
+        <v>15283.70491898844</v>
+      </c>
+      <c r="S17">
+        <v>0.0972997990779863</v>
+      </c>
+      <c r="T17">
+        <v>0.09729979907798632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H18">
+        <v>205.966888</v>
+      </c>
+      <c r="I18">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J18">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6766796666666667</v>
+      </c>
+      <c r="N18">
+        <v>2.030039</v>
+      </c>
+      <c r="O18">
+        <v>0.009246943144590633</v>
+      </c>
+      <c r="P18">
+        <v>0.009246943144590633</v>
+      </c>
+      <c r="Q18">
+        <v>46.45786837207022</v>
+      </c>
+      <c r="R18">
+        <v>418.120815348632</v>
+      </c>
+      <c r="S18">
+        <v>0.002661859250710942</v>
+      </c>
+      <c r="T18">
+        <v>0.002661859250710942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H19">
+        <v>205.966888</v>
+      </c>
+      <c r="I19">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J19">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N19">
+        <v>137.100929</v>
+      </c>
+      <c r="O19">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="P19">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="Q19">
+        <v>3137.583520893217</v>
+      </c>
+      <c r="R19">
+        <v>28238.25168803896</v>
+      </c>
+      <c r="S19">
+        <v>0.1797716083975303</v>
+      </c>
+      <c r="T19">
+        <v>0.1797716083975303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H20">
+        <v>205.966888</v>
+      </c>
+      <c r="I20">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J20">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1464426666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.439328</v>
+      </c>
+      <c r="O20">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="P20">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="Q20">
+        <v>10.05411344125156</v>
+      </c>
+      <c r="R20">
+        <v>90.487020971264</v>
+      </c>
+      <c r="S20">
+        <v>0.0005760624800293673</v>
+      </c>
+      <c r="T20">
+        <v>0.0005760624800293673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>66.2924025673385</v>
-      </c>
-      <c r="H13">
-        <v>66.2924025673385</v>
-      </c>
-      <c r="I13">
-        <v>0.304359469396052</v>
-      </c>
-      <c r="J13">
-        <v>0.304359469396052</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>22.0662428636297</v>
-      </c>
-      <c r="N13">
-        <v>22.0662428636297</v>
-      </c>
-      <c r="O13">
-        <v>0.3238545745494925</v>
-      </c>
-      <c r="P13">
-        <v>0.3238545745494925</v>
-      </c>
-      <c r="Q13">
-        <v>1462.8242550644</v>
-      </c>
-      <c r="R13">
-        <v>1462.8242550644</v>
-      </c>
-      <c r="S13">
-        <v>0.09856820647136771</v>
-      </c>
-      <c r="T13">
-        <v>0.09856820647136771</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>68.65562933333334</v>
+      </c>
+      <c r="H21">
+        <v>205.966888</v>
+      </c>
+      <c r="I21">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="J21">
+        <v>0.2878636982069153</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.65531</v>
+      </c>
+      <c r="N21">
+        <v>79.96593</v>
+      </c>
+      <c r="O21">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="P21">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="Q21">
+        <v>1830.037083125093</v>
+      </c>
+      <c r="R21">
+        <v>16470.33374812584</v>
+      </c>
+      <c r="S21">
+        <v>0.1048541680786446</v>
+      </c>
+      <c r="T21">
+        <v>0.1048541680786446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.415529</v>
+      </c>
+      <c r="I22">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J22">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.6766796666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.030039</v>
+      </c>
+      <c r="O22">
+        <v>0.009246943144590633</v>
+      </c>
+      <c r="P22">
+        <v>0.009246943144590633</v>
+      </c>
+      <c r="Q22">
+        <v>0.09372667507011112</v>
+      </c>
+      <c r="R22">
+        <v>0.843540075631</v>
+      </c>
+      <c r="S22">
+        <v>5.370182184762955E-06</v>
+      </c>
+      <c r="T22">
+        <v>5.370182184762955E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.415529</v>
+      </c>
+      <c r="I23">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J23">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N23">
+        <v>137.100929</v>
+      </c>
+      <c r="O23">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="P23">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="Q23">
+        <v>6.329934658493445</v>
+      </c>
+      <c r="R23">
+        <v>56.969411926441</v>
+      </c>
+      <c r="S23">
+        <v>0.0003626811930363165</v>
+      </c>
+      <c r="T23">
+        <v>0.0003626811930363165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.415529</v>
+      </c>
+      <c r="I24">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J24">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1464426666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.439328</v>
+      </c>
+      <c r="O24">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="P24">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="Q24">
+        <v>0.02028372494577778</v>
+      </c>
+      <c r="R24">
+        <v>0.182553524512</v>
+      </c>
+      <c r="S24">
+        <v>1.162180331938224E-06</v>
+      </c>
+      <c r="T24">
+        <v>1.162180331938224E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1385096666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.415529</v>
+      </c>
+      <c r="I25">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="J25">
+        <v>0.0005807521578527772</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>26.65531</v>
+      </c>
+      <c r="N25">
+        <v>79.96593</v>
+      </c>
+      <c r="O25">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="P25">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="Q25">
+        <v>3.692018102996667</v>
+      </c>
+      <c r="R25">
+        <v>33.22816292697</v>
+      </c>
+      <c r="S25">
+        <v>0.0002115386022997596</v>
+      </c>
+      <c r="T25">
+        <v>0.0002115386022997596</v>
       </c>
     </row>
   </sheetData>
